--- a/biology/Zoologie/Amyda_cartilaginea/Amyda_cartilaginea.xlsx
+++ b/biology/Zoologie/Amyda_cartilaginea/Amyda_cartilaginea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Amyda cartilaginea ou Trionyx d'Asie, unique représentant du genre Amyda, est une espèce de tortues de la famille des Trionychidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Amyda cartilaginea ou Trionyx d'Asie, unique représentant du genre Amyda, est une espèce de tortues de la famille des Trionychidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre :
 en Inde, dans l’État du Mizoram ;
 à Singapour ;
 au Cambodge ;
@@ -554,10 +568,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une grande tortue active de jour et de nuit.
-La longueur de sa carapace peut atteindre jusqu'à 85 cm de longueur et sa masse peut être de 65 kg[2]. Sa dossière lisse et ovale est vert olive à grise. Son plastron est gris clair ou blanc.
+La longueur de sa carapace peut atteindre jusqu'à 85 cm de longueur et sa masse peut être de 65 kg. Sa dossière lisse et ovale est vert olive à grise. Son plastron est gris clair ou blanc.
 Sa tête est vert foncé ou grisâtre, moucheté de points jaunes.
 </t>
         </is>
@@ -587,7 +603,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La Trionyx d'Asie est omnivore : elle mange des insectes aquatiques, des crustacés, des poissons et de la matière végétale.
 </t>
@@ -618,7 +636,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle peut pondre plusieurs fois par an de 3 à 28 œufs sphériques à coquille dure.
 </t>
@@ -649,7 +669,9 @@
           <t>Longévité</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">En captivité, elle vit plus de 25 ans. Sa longévité est sans doute beaucoup plus longue.
 </t>
@@ -680,7 +702,9 @@
           <t>Menace</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces tortues de grande taille et de relative abondance sont surexploitées donc en déclin.
 </t>
